--- a/data/csv/miasta.xlsx
+++ b/data/csv/miasta.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>apple</t>
   </si>
@@ -233,13 +233,31 @@
   </si>
   <si>
     <t>Chorzów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jujube </t>
+  </si>
+  <si>
+    <t>Sopot</t>
+  </si>
+  <si>
+    <t>tamarillo</t>
+  </si>
+  <si>
+    <t>Łomża</t>
+  </si>
+  <si>
+    <t>cranberry</t>
+  </si>
+  <si>
+    <t>Skierniewice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -249,6 +267,10 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Monospace"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -271,12 +293,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,6 +815,30 @@
         <v>73</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
